--- a/Stitching_Mineral_Data/Hood.xlsx
+++ b/Stitching_Mineral_Data/Hood.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Mineral_Diagrams\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Cascades_Data\Supporting_Information_Sept2022\Stitching_Mineral_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07807D47-4A4F-419E-AFA5-833998674916}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D02F925-B7C4-45F5-824B-9F0312024035}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10540" activeTab="3" xr2:uid="{B6DA8B16-3052-437B-A166-BB4EB9F31D91}"/>
+    <workbookView minimized="1" xWindow="29940" yWindow="1140" windowWidth="21600" windowHeight="11175" activeTab="3" xr2:uid="{B6DA8B16-3052-437B-A166-BB4EB9F31D91}"/>
   </bookViews>
   <sheets>
     <sheet name="Amp_All" sheetId="5" r:id="rId1"/>
@@ -20822,7 +20822,7 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="N53:N138 N17:N48">
+  <conditionalFormatting sqref="N17:N48 N53:N138">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="lessThan">
       <formula>5</formula>
     </cfRule>
@@ -24331,11 +24331,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1F0C9C-253A-40CE-9D7B-46E97B713252}">
   <dimension ref="A1:R275"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A302" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="3" max="3" width="15.1796875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18">
       <c r="B1" t="s">
